--- a/wash_P/CUB.xlsx
+++ b/wash_P/CUB.xlsx
@@ -56107,10 +56107,10 @@
         <v>0</v>
       </c>
       <c r="EJ18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EL18" t="n">
         <v>0</v>
@@ -71729,7 +71729,7 @@
         <v>0</v>
       </c>
       <c r="ED23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EE23" t="n">
         <v>0</v>
@@ -79368,7 +79368,7 @@
         <v>0</v>
       </c>
       <c r="VW25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="VX25" t="n">
         <v>0</v>
@@ -84361,7 +84361,7 @@
         <v>0</v>
       </c>
       <c r="FR27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FS27" t="n">
         <v>0</v>
@@ -87252,7 +87252,7 @@
         <v>0</v>
       </c>
       <c r="CQ28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR28" t="n">
         <v>0</v>
